--- a/docs/StructureDefinition-VAProblemAuthorship.xlsx
+++ b/docs/StructureDefinition-VAProblemAuthorship.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="321">
   <si>
     <t>Path</t>
   </si>
@@ -323,253 +323,250 @@
     <t>Provenance.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Provenance.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Provenance.target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Target Reference(s) (usually version specific)</t>
+  </si>
+  <si>
+    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
+  </si>
+  <si>
+    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
+  </si>
+  <si>
+    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
+  </si>
+  <si>
+    <t>Entity Created/Updated</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>AuditEvent.entity.reference</t>
+  </si>
+  <si>
+    <t>Provenance.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the activity occurred</t>
+  </si>
+  <si>
+    <t>The period during which the activity occurred.</t>
+  </si>
+  <si>
+    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
+  </si>
+  <si>
+    <t>./effectiveTime[type=IVL_TS]</t>
+  </si>
+  <si>
+    <t>Activity.startTime &amp; Activity.endTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>Provenance.recorded</t>
+  </si>
+  <si>
+    <t>DATE ENTERED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>Date Entered</t>
+  </si>
+  <si>
+    <t>This is the date this problem was entered into this file.</t>
+  </si>
+  <si>
+    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
+  </si>
+  <si>
+    <t>undefined @DATE ENTERED 9000011-.08</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
+  </si>
+  <si>
+    <t>Activity.when</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>AuditEvent.recorded</t>
+  </si>
+  <si>
+    <t>Provenance.policy</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by</t>
+  </si>
+  <si>
+    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
+  </si>
+  <si>
+    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
+  </si>
+  <si>
+    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.policy</t>
+  </si>
+  <si>
+    <t>Provenance.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Location)
+</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant</t>
+  </si>
+  <si>
+    <t>Where the activity occurred, if relevant.</t>
+  </si>
+  <si>
+    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
+  </si>
+  <si>
+    <t>Activity.location</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>AuditEvent.agent.location</t>
+  </si>
+  <si>
+    <t>Provenance.reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Reason the activity is occurring</t>
+  </si>
+  <si>
+    <t>The reason that the activity was taking place.</t>
+  </si>
+  <si>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
+  </si>
+  <si>
+    <t>unique(./reasonCode)</t>
+  </si>
+  <si>
+    <t>Activity.Activity</t>
+  </si>
+  <si>
+    <t>why</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent</t>
+  </si>
+  <si>
+    <t>Provenance.activity</t>
+  </si>
+  <si>
+    <t>Activity that occurred</t>
+  </si>
+  <si>
+    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
+  </si>
+  <si>
+    <t>The activity that took place.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
+  </si>
+  <si>
+    <t>Act.code</t>
+  </si>
+  <si>
+    <t>Provenance.activity.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Provenance.activity.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Provenance.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Provenance.target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Target Reference(s) (usually version specific)</t>
-  </si>
-  <si>
-    <t>The Reference(s) that were generated or updated by  the activity described in this resource. A provenance can point to more than one target if multiple resources were created/updated by the same activity.</t>
-  </si>
-  <si>
-    <t>Target references are usually version specific, but may not be, if a version has not been assigned or if the provenance information is part of the set of resources being maintained (i.e. a document). When using the RESTful API, the identity of the resource may not be known (especially not the version specific one); the client may either submit the resource first, and then the provenance, or it may submit both using a single transaction. See the notes on transaction for further discussion.</t>
-  </si>
-  <si>
-    <t>./outboundRelationship[isNormalActRelationship() and typeCode=SUBJ]/target  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role  OR  ./participation[isNormalParticipation() and typeCode=SBJ]/role[isNormalRole()]/player</t>
-  </si>
-  <si>
-    <t>Entity Created/Updated</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>AuditEvent.entity.reference</t>
-  </si>
-  <si>
-    <t>Provenance.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the activity occurred</t>
-  </si>
-  <si>
-    <t>The period during which the activity occurred.</t>
-  </si>
-  <si>
-    <t>The period can be a little arbitrary; where possible, the time should correspond to human assessment of the activity time.</t>
-  </si>
-  <si>
-    <t>./effectiveTime[type=IVL_TS]</t>
-  </si>
-  <si>
-    <t>Activity.startTime &amp; Activity.endTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>Provenance.recorded</t>
-  </si>
-  <si>
-    <t>DATE ENTERED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>Date Entered</t>
-  </si>
-  <si>
-    <t>This is the date this problem was entered into this file.</t>
-  </si>
-  <si>
-    <t>This can be a little different from the time stamp on the resource if there is a delay between recording the event and updating the provenance and target resource.</t>
-  </si>
-  <si>
-    <t>undefined @DATE ENTERED 9000011-.08</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=AUT]/time[type=TS])</t>
-  </si>
-  <si>
-    <t>Activity.when</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>AuditEvent.recorded</t>
-  </si>
-  <si>
-    <t>Provenance.policy</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by</t>
-  </si>
-  <si>
-    <t>Policy or plan the activity was defined by. Typically, a single activity may have multiple applicable policy documents, such as patient consent, guarantor funding, etc.</t>
-  </si>
-  <si>
-    <t>For example: Where an OAuth token authorizes, the unique identifier from the OAuth token is placed into the policy element Where a policy engine (e.g. XACML) holds policy logic, the unique policy identifier is placed into the policy element.</t>
-  </si>
-  <si>
-    <t>./inboundRelationship[isNormalActRelationship() and typeCode="SUBJ"]/source[isNormalAct and subsumes(POLICY, classCode) and moodCode=EVN]/text[typeCode='ED'/tel</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.policy</t>
-  </si>
-  <si>
-    <t>Provenance.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Location)
-</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant</t>
-  </si>
-  <si>
-    <t>Where the activity occurred, if relevant.</t>
-  </si>
-  <si>
-    <t>unique(./participation[isNormalParticipation() and typeCode=LOC]/role[isNormalRole() and subsumes(SDLOC, classCode)]/player[isNormalEntity and classCode="LOC" and determinerCode="INST"]</t>
-  </si>
-  <si>
-    <t>Activity.location</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>AuditEvent.agent.location</t>
-  </si>
-  <si>
-    <t>Provenance.reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Reason the activity is occurring</t>
-  </si>
-  <si>
-    <t>The reason that the activity was taking place.</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-PurposeOfUse</t>
-  </si>
-  <si>
-    <t>unique(./reasonCode)</t>
-  </si>
-  <si>
-    <t>Activity.Activity</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>AuditEvent.purposeOfEvent</t>
-  </si>
-  <si>
-    <t>Provenance.activity</t>
-  </si>
-  <si>
-    <t>Activity that occurred</t>
-  </si>
-  <si>
-    <t>An activity is something that occurs over a period of time and acts upon or with entities; it may include consuming, processing, transforming, modifying, relocating, using, or generating entities.</t>
-  </si>
-  <si>
-    <t>The activity that took place.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/provenance-activity-type</t>
-  </si>
-  <si>
-    <t>Act.code</t>
-  </si>
-  <si>
-    <t>Provenance.activity.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Provenance.activity.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -2133,7 +2130,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2152,15 +2149,17 @@
         <v>44</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>44</v>
@@ -2197,14 +2196,16 @@
         <v>44</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>44</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>103</v>
@@ -2225,7 +2226,7 @@
         <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>44</v>
@@ -2243,7 +2244,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2262,16 +2263,16 @@
         <v>44</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2321,7 +2322,7 @@
         <v>44</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2353,7 +2354,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2376,16 +2377,16 @@
         <v>54</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2435,7 +2436,7 @@
         <v>44</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>53</v>
@@ -2453,21 +2454,21 @@
         <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2490,16 +2491,16 @@
         <v>44</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2549,7 +2550,7 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2567,13 +2568,13 @@
         <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>44</v>
@@ -2581,14 +2582,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>53</v>
@@ -2606,16 +2607,16 @@
         <v>54</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2665,7 +2666,7 @@
         <v>44</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>53</v>
@@ -2680,24 +2681,24 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2723,13 +2724,13 @@
         <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2779,7 +2780,7 @@
         <v>44</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2797,7 +2798,7 @@
         <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>44</v>
@@ -2806,12 +2807,12 @@
         <v>44</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2834,13 +2835,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2891,7 +2892,7 @@
         <v>44</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2909,21 +2910,21 @@
         <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>151</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2946,13 +2947,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2982,10 +2983,10 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3003,7 +3004,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3021,21 +3022,21 @@
         <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3058,13 +3059,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3094,60 +3095,60 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="AL17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>161</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3170,13 +3171,13 @@
         <v>44</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3227,7 +3228,7 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3245,7 +3246,7 @@
         <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>44</v>
@@ -3259,11 +3260,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3282,16 +3283,16 @@
         <v>44</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3329,19 +3330,19 @@
         <v>44</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3359,7 +3360,7 @@
         <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>44</v>
@@ -3373,7 +3374,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3399,83 +3400,83 @@
         <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>44</v>
@@ -3489,7 +3490,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3512,16 +3513,16 @@
         <v>54</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3571,25 +3572,25 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>44</v>
@@ -3603,7 +3604,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3629,81 +3630,81 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>44</v>
@@ -3717,7 +3718,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3740,17 +3741,17 @@
         <v>54</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>44</v>
@@ -3799,25 +3800,25 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>44</v>
@@ -3831,7 +3832,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3854,19 +3855,19 @@
         <v>54</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>44</v>
@@ -3915,25 +3916,25 @@
         <v>44</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>44</v>
@@ -3947,7 +3948,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3970,19 +3971,19 @@
         <v>44</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>44</v>
@@ -4031,7 +4032,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>53</v>
@@ -4043,27 +4044,27 @@
         <v>44</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>224</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4086,13 +4087,13 @@
         <v>44</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4143,7 +4144,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4161,7 +4162,7 @@
         <v>44</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>44</v>
@@ -4175,11 +4176,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4198,16 +4199,16 @@
         <v>44</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4257,7 +4258,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4275,7 +4276,7 @@
         <v>44</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>44</v>
@@ -4289,11 +4290,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4312,16 +4313,16 @@
         <v>54</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4371,7 +4372,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4403,7 +4404,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4426,16 +4427,16 @@
         <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4464,11 +4465,11 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>237</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>44</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4503,21 +4504,21 @@
         <v>44</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>240</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4540,13 +4541,13 @@
         <v>44</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4597,7 +4598,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4615,7 +4616,7 @@
         <v>44</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>44</v>
@@ -4629,11 +4630,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4652,16 +4653,16 @@
         <v>44</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4699,19 +4700,19 @@
         <v>44</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4729,7 +4730,7 @@
         <v>44</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>44</v>
@@ -4743,7 +4744,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4766,19 +4767,19 @@
         <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>44</v>
@@ -4827,7 +4828,7 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -4845,7 +4846,7 @@
         <v>44</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>44</v>
@@ -4859,7 +4860,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4882,13 +4883,13 @@
         <v>44</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4939,7 +4940,7 @@
         <v>44</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -4957,7 +4958,7 @@
         <v>44</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>44</v>
@@ -4971,11 +4972,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4994,16 +4995,16 @@
         <v>44</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5041,19 +5042,19 @@
         <v>44</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5071,7 +5072,7 @@
         <v>44</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>44</v>
@@ -5085,7 +5086,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5111,23 +5112,23 @@
         <v>66</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>44</v>
@@ -5169,25 +5170,25 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>44</v>
@@ -5201,7 +5202,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5224,16 +5225,16 @@
         <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5283,25 +5284,25 @@
         <v>44</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>44</v>
@@ -5315,7 +5316,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5341,21 +5342,21 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>44</v>
@@ -5397,25 +5398,25 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>44</v>
@@ -5429,7 +5430,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5452,17 +5453,17 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>44</v>
@@ -5511,25 +5512,25 @@
         <v>44</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>44</v>
@@ -5543,7 +5544,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5566,19 +5567,19 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>44</v>
@@ -5627,25 +5628,25 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>44</v>
@@ -5659,7 +5660,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5682,19 +5683,19 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>44</v>
@@ -5743,25 +5744,25 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>44</v>
@@ -5775,7 +5776,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5798,13 +5799,13 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5855,7 +5856,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>53</v>
@@ -5873,13 +5874,13 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -5887,7 +5888,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5910,13 +5911,13 @@
         <v>44</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5967,7 +5968,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -5985,7 +5986,7 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
@@ -5999,11 +6000,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6022,16 +6023,16 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6069,16 +6070,16 @@
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AE43" s="2"/>
       <c r="AF43" t="s" s="2">
@@ -6095,7 +6096,7 @@
         <v>44</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>44</v>
@@ -6109,7 +6110,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6132,13 +6133,13 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6189,7 +6190,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6207,7 +6208,7 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
@@ -6221,7 +6222,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6244,13 +6245,13 @@
         <v>44</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6277,52 +6278,52 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="X45" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="X45" t="s" s="2">
+      <c r="Y45" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="Z45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>44</v>
@@ -6333,7 +6334,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6356,16 +6357,16 @@
         <v>44</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6415,7 +6416,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6427,27 +6428,27 @@
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>292</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6470,13 +6471,13 @@
         <v>44</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6527,7 +6528,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6545,7 +6546,7 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6559,11 +6560,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6582,16 +6583,16 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6641,7 +6642,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6659,7 +6660,7 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
@@ -6673,11 +6674,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6696,16 +6697,16 @@
         <v>54</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6755,7 +6756,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6787,7 +6788,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6813,10 +6814,10 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6843,63 +6844,63 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="X50" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="X50" t="s" s="2">
+      <c r="Y50" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6922,16 +6923,16 @@
         <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6981,7 +6982,7 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>53</v>
@@ -6999,21 +7000,21 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AL51" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7039,13 +7040,13 @@
         <v>44</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7095,7 +7096,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7113,7 +7114,7 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
@@ -7127,7 +7128,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7150,13 +7151,13 @@
         <v>44</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7207,7 +7208,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7225,7 +7226,7 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAProblemAuthorship.xlsx
+++ b/docs/StructureDefinition-VAProblemAuthorship.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1903" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="345">
   <si>
     <t>Path</t>
   </si>
@@ -841,29 +841,107 @@
     <t>Provenance.agent.who[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Who participated</t>
+  </si>
+  <si>
+    <t>The individual, device or organization that participated in the event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>who.actor</t>
+  </si>
+  <si>
+    <t>whoReference</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].id</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].extension</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].identifier</t>
+  </si>
+  <si>
+    <t>STATION NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>This is the facility at which this problem was originally observed and documented.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>undefined @STATION NUMBER 9999999.06-.01:4-99</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Provenance.agent.who[x].display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Provenance.agent.onBehalfOf[x]</t>
+  </si>
+  <si>
     <t>uri
 Reference(Practitioner|RelatedPerson|Patient|Device|Organization)</t>
-  </si>
-  <si>
-    <t>Who participated</t>
-  </si>
-  <si>
-    <t>The individual, device or organization that participated in the event.</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>who.actor</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who[x].id</t>
-  </si>
-  <si>
-    <t>Provenance.agent.who[x].extension</t>
-  </si>
-  <si>
-    <t>Provenance.agent.onBehalfOf[x]</t>
   </si>
   <si>
     <t>Who the agent is representing</t>
@@ -1155,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN53"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1165,9 +1243,9 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="41.03515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.1796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="15.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="17.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
@@ -1199,7 +1277,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="39.1875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="49.28125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="219.3046875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="35.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.79296875" customWidth="true" bestFit="true"/>
@@ -5844,16 +5922,14 @@
         <v>44</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>265</v>
@@ -5874,13 +5950,13 @@
         <v>44</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>44</v>
@@ -5888,15 +5964,17 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>53</v>
@@ -5908,16 +5986,16 @@
         <v>44</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5968,10 +6046,10 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>53</v>
@@ -5986,13 +6064,13 @@
         <v>44</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>44</v>
+        <v>272</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>44</v>
@@ -6000,18 +6078,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>44</v>
@@ -6023,17 +6101,15 @@
         <v>44</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>44</v>
@@ -6070,22 +6146,26 @@
         <v>44</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>174</v>
+        <v>44</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>175</v>
+        <v>44</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AE43" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AG43" s="2"/>
+      <c r="AG43" t="s" s="2">
+        <v>53</v>
+      </c>
       <c r="AH43" t="s" s="2">
         <v>44</v>
       </c>
@@ -6110,18 +6190,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>44</v>
@@ -6133,15 +6213,17 @@
         <v>44</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>44</v>
@@ -6178,25 +6260,25 @@
         <v>44</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>44</v>
+        <v>176</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>44</v>
@@ -6208,7 +6290,7 @@
         <v>44</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>44</v>
@@ -6222,7 +6304,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6242,18 +6324,20 @@
         <v>44</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>44</v>
@@ -6278,95 +6362,97 @@
         <v>44</v>
       </c>
       <c r="W45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="X45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="Y45" t="s" s="2">
+      <c r="AI45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="E46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6416,39 +6502,39 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>219</v>
+        <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>291</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6468,18 +6554,20 @@
         <v>44</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>167</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>44</v>
@@ -6528,7 +6616,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>170</v>
+        <v>295</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6546,7 +6634,7 @@
         <v>44</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>44</v>
@@ -6560,18 +6648,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>44</v>
@@ -6583,17 +6671,15 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>99</v>
+        <v>297</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>100</v>
+        <v>298</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>44</v>
@@ -6642,13 +6728,13 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>44</v>
@@ -6660,7 +6746,7 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>171</v>
+        <v>300</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
@@ -6674,40 +6760,38 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>227</v>
+        <v>44</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>302</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>44</v>
@@ -6732,13 +6816,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>44</v>
+        <v>305</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -6756,13 +6840,13 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>44</v>
@@ -6774,10 +6858,10 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>96</v>
+        <v>307</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -6788,7 +6872,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6796,10 +6880,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>44</v>
@@ -6808,18 +6892,20 @@
         <v>44</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>44</v>
@@ -6844,13 +6930,13 @@
         <v>44</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>44</v>
@@ -6868,39 +6954,39 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6908,7 +6994,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>53</v>
@@ -6920,20 +7006,18 @@
         <v>44</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>305</v>
+        <v>167</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>306</v>
+        <v>168</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>44</v>
@@ -6982,10 +7066,10 @@
         <v>44</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>304</v>
+        <v>170</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>53</v>
@@ -7000,25 +7084,25 @@
         <v>44</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>310</v>
+        <v>44</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>116</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7037,16 +7121,16 @@
         <v>44</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>312</v>
+        <v>100</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>313</v>
+        <v>173</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>314</v>
+        <v>102</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7096,7 +7180,7 @@
         <v>44</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>311</v>
+        <v>177</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7114,7 +7198,7 @@
         <v>44</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>315</v>
+        <v>171</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>44</v>
@@ -7128,11 +7212,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>44</v>
+        <v>227</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7145,21 +7229,23 @@
         <v>44</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>317</v>
+        <v>99</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>318</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>44</v>
@@ -7208,7 +7294,7 @@
         <v>44</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7226,20 +7312,472 @@
         <v>44</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AN53" t="s" s="2">
+      <c r="L54" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN53">
+  <autoFilter ref="A1:AN57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7249,7 +7787,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAProblemAuthorship.xlsx
+++ b/docs/StructureDefinition-VAProblemAuthorship.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="347">
   <si>
     <t>Path</t>
   </si>
@@ -867,6 +867,15 @@
     <t>whoReference</t>
   </si>
   <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>This is the facility at which this problem was originally observed and documented.</t>
+  </si>
+  <si>
+    <t>INSTITUTION @NAME 9999999.06-.01:4-.01</t>
+  </si>
+  <si>
     <t>Provenance.agent.who[x].id</t>
   </si>
   <si>
@@ -903,9 +912,6 @@
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>This is the facility at which this problem was originally observed and documented.</t>
   </si>
   <si>
     <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
@@ -5962,7 +5968,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>265</v>
       </c>
@@ -5972,7 +5978,9 @@
       <c r="C42" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="E42" t="s" s="2">
         <v>53</v>
       </c>
@@ -5980,7 +5988,7 @@
         <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>44</v>
@@ -5995,7 +6003,7 @@
         <v>267</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6061,7 +6069,7 @@
         <v>44</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>271</v>
@@ -6078,7 +6086,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6190,7 +6198,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6304,7 +6312,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6330,13 +6338,13 @@
         <v>167</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6386,7 +6394,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6395,7 +6403,7 @@
         <v>53</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>44</v>
@@ -6418,14 +6426,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E46" t="s" s="2">
         <v>42</v>
@@ -6443,16 +6451,16 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6502,7 +6510,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6517,10 +6525,10 @@
         <v>44</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>44</v>
@@ -6534,7 +6542,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6560,13 +6568,13 @@
         <v>167</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6616,7 +6624,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6648,7 +6656,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6671,13 +6679,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6728,7 +6736,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6746,7 +6754,7 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
@@ -6760,7 +6768,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6786,10 +6794,10 @@
         <v>231</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6816,13 +6824,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -6840,7 +6848,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6858,10 +6866,10 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -6872,7 +6880,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6898,13 +6906,13 @@
         <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6954,7 +6962,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -6972,21 +6980,21 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7098,7 +7106,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7212,7 +7220,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7326,7 +7334,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7352,10 +7360,10 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7382,13 +7390,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7406,7 +7414,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>53</v>
@@ -7424,21 +7432,21 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7461,16 +7469,16 @@
         <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7520,7 +7528,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>53</v>
@@ -7538,10 +7546,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7552,7 +7560,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7578,13 +7586,13 @@
         <v>44</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7634,7 +7642,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7652,7 +7660,7 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
@@ -7666,7 +7674,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7689,13 +7697,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7746,7 +7754,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7764,7 +7772,7 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>

--- a/docs/StructureDefinition-VAProblemAuthorship.xlsx
+++ b/docs/StructureDefinition-VAProblemAuthorship.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="349">
   <si>
     <t>Path</t>
   </si>
@@ -931,16 +931,22 @@
     <t>Provenance.agent.who[x].display</t>
   </si>
   <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+    <t>ENTERED BY</t>
+  </si>
+  <si>
+    <t>entered by name</t>
+  </si>
+  <si>
+    <t>This is the user who actually entered this problem into this file.</t>
   </si>
   <si>
     <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
   </si>
   <si>
     <t>Reference.display</t>
+  </si>
+  <si>
+    <t>undefined @ENTERED BY 9000011-1.03</t>
   </si>
   <si>
     <t>Provenance.agent.onBehalfOf[x]</t>
@@ -6540,7 +6546,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>293</v>
       </c>
@@ -6548,7 +6554,9 @@
       <c r="C47" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6556,7 +6564,7 @@
         <v>53</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>44</v>
@@ -6568,13 +6576,13 @@
         <v>167</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6624,7 +6632,7 @@
         <v>44</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6639,7 +6647,7 @@
         <v>44</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>96</v>
@@ -6656,7 +6664,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6679,13 +6687,13 @@
         <v>44</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6736,7 +6744,7 @@
         <v>44</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6754,7 +6762,7 @@
         <v>44</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>44</v>
@@ -6768,7 +6776,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6794,10 +6802,10 @@
         <v>231</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6824,13 +6832,13 @@
         <v>44</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>44</v>
@@ -6848,7 +6856,7 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -6866,10 +6874,10 @@
         <v>44</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>44</v>
@@ -6880,7 +6888,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6906,13 +6914,13 @@
         <v>214</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6962,7 +6970,7 @@
         <v>44</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -6980,21 +6988,21 @@
         <v>44</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7106,7 +7114,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7220,7 +7228,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7334,7 +7342,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7360,10 +7368,10 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7390,13 +7398,13 @@
         <v>44</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>44</v>
@@ -7414,7 +7422,7 @@
         <v>44</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>53</v>
@@ -7432,21 +7440,21 @@
         <v>44</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7469,16 +7477,16 @@
         <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7528,7 +7536,7 @@
         <v>44</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>53</v>
@@ -7546,10 +7554,10 @@
         <v>44</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>44</v>
@@ -7560,7 +7568,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7586,13 +7594,13 @@
         <v>44</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7642,7 +7650,7 @@
         <v>44</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -7660,7 +7668,7 @@
         <v>44</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>44</v>
@@ -7674,7 +7682,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7697,13 +7705,13 @@
         <v>44</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7754,7 +7762,7 @@
         <v>44</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7772,7 +7780,7 @@
         <v>44</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>44</v>
